--- a/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33E5D657-680C-416C-BDEC-F9C56A53E35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E294F8-0EAB-4FB0-B194-5F61148ECD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F119F472-A703-4204-8E5C-DF1262BB7C6A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47D6EFBE-0B47-4CD3-96CA-6D2E97BDF083}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>5,69%</t>
+    <t>5,73%</t>
   </si>
   <si>
     <t>8,71%</t>
@@ -92,10 +92,10 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
   </si>
   <si>
     <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
@@ -104,412 +104,415 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>62,24%</t>
+  </si>
+  <si>
+    <t>67,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD1D73-0C2B-4AB2-9183-2A1A59932873}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A8BD1-F00B-4209-BE3A-F5FC7A36C290}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1521,7 +1524,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1891,7 +1894,7 @@
         <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -1900,13 +1903,13 @@
         <v>216024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,13 +1924,13 @@
         <v>876352</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1472</v>
@@ -1936,13 +1939,13 @@
         <v>960077</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2404</v>
@@ -1951,13 +1954,13 @@
         <v>1836429</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,13 +1975,13 @@
         <v>2114385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3377</v>
@@ -1987,13 +1990,13 @@
         <v>2453498</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>5442</v>
@@ -2002,13 +2005,13 @@
         <v>4567883</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2023,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5E294F8-0EAB-4FB0-B194-5F61148ECD3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9098A4-0D1C-443C-A163-E4649474F204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{47D6EFBE-0B47-4CD3-96CA-6D2E97BDF083}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87A4CB43-122A-4E32-9C2B-AC6DEA5447E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816A8BD1-F00B-4209-BE3A-F5FC7A36C290}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F47EEBD-4EAF-4447-9038-279D85FA9578}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA9098A4-0D1C-443C-A163-E4649474F204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36595BF7-BFF3-4CDC-B0A3-9D25D693FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{87A4CB43-122A-4E32-9C2B-AC6DEA5447E0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA5A87AF-656D-46F0-BCF1-18F607F13520}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>6,85%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>7,18%</t>
   </si>
   <si>
-    <t>5,73%</t>
+    <t>5,69%</t>
   </si>
   <si>
     <t>8,71%</t>
@@ -92,10 +92,10 @@
     <t>7,05%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
@@ -104,415 +104,412 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>2,52%</t>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
   <si>
     <t>8,05%</t>
   </si>
   <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
   </si>
   <si>
     <t>25,95%</t>
   </si>
   <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
   </si>
   <si>
     <t>25,28%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
+    <t>59,49%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
   </si>
   <si>
     <t>63,66%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F47EEBD-4EAF-4447-9038-279D85FA9578}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8B2CB1-121A-45BA-BC92-DD7662CEB590}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1524,7 +1521,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1894,7 +1891,7 @@
         <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
@@ -1903,13 +1900,13 @@
         <v>216024</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1924,13 +1921,13 @@
         <v>876352</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1472</v>
@@ -1939,13 +1936,13 @@
         <v>960077</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2404</v>
@@ -1954,13 +1951,13 @@
         <v>1836429</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1972,13 @@
         <v>2114385</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3377</v>
@@ -1990,13 +1987,13 @@
         <v>2453498</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>5442</v>
@@ -2005,13 +2002,13 @@
         <v>4567883</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2020,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2064,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36595BF7-BFF3-4CDC-B0A3-9D25D693FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8334882-49A3-48C1-B194-D5D1EDD0E64D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA5A87AF-656D-46F0-BCF1-18F607F13520}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2CDFB6C9-0FF8-4BDB-9E73-0769657549B6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
   <si>
     <t>Población según si su médico le ha aconsejado que siga una alimentación saludable en 2023 (Tasa respuesta: 99,93%)</t>
   </si>
@@ -71,445 +71,448 @@
     <t>Sí, otra persona</t>
   </si>
   <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>Sí, mi médico/a</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>50,79%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>Sí, otro/a profesional sanitario/a (p.ej. fisioterapeuta, psicólogo/a, farmacéutico/a, enfermero/a…)</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>Sí, mi médico/a</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>76,55%</t>
-  </si>
-  <si>
-    <t>71,66%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
+    <t>2,2%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8B2CB1-121A-45BA-BC92-DD7662CEB590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF584E3-083A-47F3-BA9A-7FC66384D87D}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,7 +1048,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>37113</v>
+        <v>32425</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1060,7 +1063,7 @@
         <v>94</v>
       </c>
       <c r="I4" s="7">
-        <v>59942</v>
+        <v>52018</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1075,7 +1078,7 @@
         <v>138</v>
       </c>
       <c r="N4" s="7">
-        <v>97055</v>
+        <v>84443</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1096,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D5" s="7">
-        <v>15124</v>
+        <v>13084</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1111,7 +1114,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="7">
-        <v>29238</v>
+        <v>25106</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1126,7 +1129,7 @@
         <v>66</v>
       </c>
       <c r="N5" s="7">
-        <v>44362</v>
+        <v>38190</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1147,7 +1150,7 @@
         <v>259</v>
       </c>
       <c r="D6" s="7">
-        <v>190364</v>
+        <v>179283</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1162,7 +1165,7 @@
         <v>564</v>
       </c>
       <c r="I6" s="7">
-        <v>331344</v>
+        <v>295393</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1177,7 +1180,7 @@
         <v>823</v>
       </c>
       <c r="N6" s="7">
-        <v>521708</v>
+        <v>474676</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1198,7 +1201,7 @@
         <v>369</v>
       </c>
       <c r="D7" s="7">
-        <v>299032</v>
+        <v>290146</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1213,7 +1216,7 @@
         <v>720</v>
       </c>
       <c r="I7" s="7">
-        <v>414364</v>
+        <v>382021</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1228,7 +1231,7 @@
         <v>1089</v>
       </c>
       <c r="N7" s="7">
-        <v>713396</v>
+        <v>672167</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1249,7 +1252,7 @@
         <v>691</v>
       </c>
       <c r="D8" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1264,7 +1267,7 @@
         <v>1425</v>
       </c>
       <c r="I8" s="7">
-        <v>834887</v>
+        <v>754538</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1279,7 +1282,7 @@
         <v>2116</v>
       </c>
       <c r="N8" s="7">
-        <v>1376521</v>
+        <v>1269476</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1302,7 +1305,7 @@
         <v>193</v>
       </c>
       <c r="D9" s="7">
-        <v>216077</v>
+        <v>194265</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1317,7 +1320,7 @@
         <v>222</v>
       </c>
       <c r="I9" s="7">
-        <v>187288</v>
+        <v>159665</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1332,7 +1335,7 @@
         <v>415</v>
       </c>
       <c r="N9" s="7">
-        <v>403366</v>
+        <v>353930</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1353,7 +1356,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="7">
-        <v>68859</v>
+        <v>60550</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1368,7 +1371,7 @@
         <v>98</v>
       </c>
       <c r="I10" s="7">
-        <v>75585</v>
+        <v>64809</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1383,7 +1386,7 @@
         <v>167</v>
       </c>
       <c r="N10" s="7">
-        <v>144444</v>
+        <v>125359</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1404,7 +1407,7 @@
         <v>498</v>
       </c>
       <c r="D11" s="7">
-        <v>528400</v>
+        <v>694958</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1419,7 +1422,7 @@
         <v>693</v>
       </c>
       <c r="I11" s="7">
-        <v>474709</v>
+        <v>427651</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1434,7 +1437,7 @@
         <v>1191</v>
       </c>
       <c r="N11" s="7">
-        <v>1003109</v>
+        <v>1122609</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1455,7 +1458,7 @@
         <v>1232</v>
       </c>
       <c r="D12" s="7">
-        <v>1348685</v>
+        <v>1340554</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1470,7 +1473,7 @@
         <v>1908</v>
       </c>
       <c r="I12" s="7">
-        <v>1511939</v>
+        <v>1585698</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1485,7 +1488,7 @@
         <v>3140</v>
       </c>
       <c r="N12" s="7">
-        <v>2860624</v>
+        <v>2926252</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1506,7 +1509,7 @@
         <v>1992</v>
       </c>
       <c r="D13" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1521,7 +1524,7 @@
         <v>2921</v>
       </c>
       <c r="I13" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1536,7 +1539,7 @@
         <v>4913</v>
       </c>
       <c r="N13" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1559,7 +1562,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="7">
-        <v>34153</v>
+        <v>32313</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1574,7 +1577,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>20079</v>
+        <v>17506</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1589,7 +1592,7 @@
         <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>54233</v>
+        <v>49819</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1610,7 +1613,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="7">
-        <v>14631</v>
+        <v>12743</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1625,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="I15" s="7">
-        <v>12588</v>
+        <v>10772</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1640,7 +1643,7 @@
         <v>27</v>
       </c>
       <c r="N15" s="7">
-        <v>27218</v>
+        <v>23515</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1661,7 +1664,7 @@
         <v>175</v>
       </c>
       <c r="D16" s="7">
-        <v>157588</v>
+        <v>147191</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1676,7 +1679,7 @@
         <v>215</v>
       </c>
       <c r="I16" s="7">
-        <v>154024</v>
+        <v>140503</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1691,7 +1694,7 @@
         <v>390</v>
       </c>
       <c r="N16" s="7">
-        <v>311612</v>
+        <v>287695</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1712,7 +1715,7 @@
         <v>464</v>
       </c>
       <c r="D17" s="7">
-        <v>466668</v>
+        <v>454376</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1727,7 +1730,7 @@
         <v>749</v>
       </c>
       <c r="I17" s="7">
-        <v>527195</v>
+        <v>491682</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
@@ -1742,7 +1745,7 @@
         <v>1213</v>
       </c>
       <c r="N17" s="7">
-        <v>993863</v>
+        <v>946057</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>122</v>
@@ -1763,7 +1766,7 @@
         <v>681</v>
       </c>
       <c r="D18" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1778,7 +1781,7 @@
         <v>1004</v>
       </c>
       <c r="I18" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1793,7 +1796,7 @@
         <v>1685</v>
       </c>
       <c r="N18" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1816,7 +1819,7 @@
         <v>266</v>
       </c>
       <c r="D19" s="7">
-        <v>287344</v>
+        <v>259003</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>125</v>
@@ -1831,7 +1834,7 @@
         <v>342</v>
       </c>
       <c r="I19" s="7">
-        <v>267309</v>
+        <v>229188</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>128</v>
@@ -1846,7 +1849,7 @@
         <v>608</v>
       </c>
       <c r="N19" s="7">
-        <v>554653</v>
+        <v>488192</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>131</v>
@@ -1867,46 +1870,46 @@
         <v>101</v>
       </c>
       <c r="D20" s="7">
-        <v>98614</v>
+        <v>86377</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>159</v>
       </c>
       <c r="I20" s="7">
-        <v>117410</v>
+        <v>100687</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>260</v>
       </c>
       <c r="N20" s="7">
-        <v>216024</v>
+        <v>187064</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,46 +1921,46 @@
         <v>932</v>
       </c>
       <c r="D21" s="7">
-        <v>876352</v>
+        <v>1021433</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>1472</v>
       </c>
       <c r="I21" s="7">
-        <v>960077</v>
+        <v>863548</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>2404</v>
       </c>
       <c r="N21" s="7">
-        <v>1836429</v>
+        <v>1884980</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,46 +1972,46 @@
         <v>2065</v>
       </c>
       <c r="D22" s="7">
-        <v>2114385</v>
+        <v>2085076</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>3377</v>
       </c>
       <c r="I22" s="7">
-        <v>2453498</v>
+        <v>2459401</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M22" s="7">
         <v>5442</v>
       </c>
       <c r="N22" s="7">
-        <v>4567883</v>
+        <v>4544477</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,7 +2023,7 @@
         <v>3364</v>
       </c>
       <c r="D23" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2035,7 +2038,7 @@
         <v>5350</v>
       </c>
       <c r="I23" s="7">
-        <v>3798294</v>
+        <v>3652824</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2050,7 +2053,7 @@
         <v>8714</v>
       </c>
       <c r="N23" s="7">
-        <v>7174989</v>
+        <v>7104713</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2064,7 +2067,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
